--- a/app/static/uploads/excels/VRONCE.xlsx
+++ b/app/static/uploads/excels/VRONCE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\OneDrive\Escritorio\Proyectos\Ferretería\ferreteria-back\app\static\uploads\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\OneDrive\Escritorio\Proyectos\Ferreteria\ferreteria-back\app\static\uploads\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941EC03A-2596-4C9C-BC76-2B6F3470A46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0184A4-A394-47F5-8278-AECAE0177065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1073" yWindow="1073" windowWidth="19327" windowHeight="10477" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="444">
   <si>
     <r>
       <rPr>
@@ -4392,6 +4392,50 @@
   </si>
   <si>
     <t>MARCA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>CANDADOS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>PASADORES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>MANIJAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t>ADICIONALES</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4402,7 +4446,7 @@
     <numFmt numFmtId="164" formatCode="\$\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="\$\ 0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4435,6 +4479,18 @@
       <b/>
       <sz val="22"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4543,9 +4599,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4562,23 +4630,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4887,7 +4949,7 @@
   <dimension ref="A1:D260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A256" sqref="A256:D256"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -4899,3401 +4961,3421 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="1" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
-        <v>10502</v>
+      <c r="D2" s="6">
+        <v>11027.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
-        <v>10691</v>
+      <c r="D3" s="8">
+        <v>11225.55</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
-        <v>7788</v>
+      <c r="D4" s="8">
+        <v>8177.4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
-        <v>19180</v>
+      <c r="D5" s="8">
+        <v>20139</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
-        <v>14206</v>
+      <c r="D6" s="8">
+        <v>14916.3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="4">
-        <v>10738</v>
+      <c r="D7" s="8">
+        <v>11274.9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4">
-        <v>11210</v>
+      <c r="D8" s="8">
+        <v>11770.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4">
-        <v>18757</v>
+      <c r="D9" s="8">
+        <v>19694.849999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4">
-        <v>11931</v>
+      <c r="D10" s="8">
+        <v>12527.55</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4">
-        <v>13161</v>
+      <c r="D11" s="8">
+        <v>13819.05</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="4">
-        <v>15928</v>
+      <c r="D12" s="8">
+        <v>16724.400000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="4">
-        <v>12876</v>
+      <c r="D13" s="8">
+        <v>13519.8</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="4">
-        <v>13200</v>
+      <c r="D14" s="8">
+        <v>13860</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4">
-        <v>14040</v>
+      <c r="D15" s="8">
+        <v>14742</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="4">
-        <v>10691</v>
+      <c r="D16" s="8">
+        <v>11225.55</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="4">
-        <v>11092</v>
+      <c r="D17" s="8">
+        <v>11646.6</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="4">
-        <v>11064</v>
+      <c r="D18" s="8">
+        <v>11617.2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="4">
-        <v>15720</v>
+      <c r="D19" s="8">
+        <v>16506</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="4">
-        <v>20400</v>
+      <c r="D20" s="8">
+        <v>21420</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="4">
-        <v>13380</v>
+      <c r="D21" s="8">
+        <v>14049</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="5"/>
+      <c r="D27" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="5"/>
+      <c r="D28" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="4">
-        <v>17860.02</v>
+      <c r="D29" s="8">
+        <v>18753.02</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="4">
-        <v>5196</v>
+      <c r="D34" s="8">
+        <v>5455.8</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="4">
-        <v>4980</v>
+      <c r="D35" s="8">
+        <v>5229</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="4">
-        <v>28750</v>
+      <c r="D36" s="8">
+        <v>30187.5</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="4">
-        <v>28750</v>
+      <c r="D37" s="8">
+        <v>30187.5</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="4">
-        <v>13797</v>
+      <c r="D38" s="8">
+        <v>14486.85</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="4">
-        <v>16533</v>
+      <c r="D39" s="8">
+        <v>17359.650000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="4">
-        <v>13307</v>
+      <c r="D40" s="8">
+        <v>13972.35</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="6">
-        <v>18460</v>
+      <c r="D42" s="11">
+        <v>19567.599999999999</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D43" s="6">
-        <v>15604</v>
+      <c r="D43" s="11">
+        <v>16540.240000000002</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="6">
-        <v>15604</v>
+      <c r="D44" s="11">
+        <v>16540.240000000002</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="6">
-        <v>18460</v>
+      <c r="D45" s="11">
+        <v>19567.599999999999</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="6">
-        <v>21600</v>
+      <c r="D46" s="11">
+        <v>22896</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="10" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D48" s="6">
-        <v>29862</v>
+      <c r="D48" s="11">
+        <v>31653.72</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="6">
-        <v>26841</v>
+      <c r="D49" s="11">
+        <v>28451.46</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="6">
-        <v>20978</v>
+      <c r="D50" s="11">
+        <v>22236.68</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="6">
-        <v>17023</v>
+      <c r="D51" s="11">
+        <v>18044.38</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="6">
-        <v>28520</v>
+      <c r="D52" s="11">
+        <v>30231.200000000001</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="6">
-        <v>26939</v>
+      <c r="D53" s="11">
+        <v>28555.34</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D54" s="6">
-        <v>24745</v>
+      <c r="D54" s="11">
+        <v>26229.7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="6">
-        <v>19020</v>
+      <c r="D55" s="11">
+        <v>20161.2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="6">
-        <v>26842</v>
+      <c r="D56" s="11">
+        <v>28452.52</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="6">
-        <v>26938</v>
+      <c r="D57" s="11">
+        <v>28554.28</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="6">
-        <v>25579</v>
+      <c r="D58" s="11">
+        <v>27113.74</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="6">
-        <v>18340</v>
+      <c r="D59" s="11">
+        <v>19440.400000000001</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D60" s="6">
-        <v>19875</v>
+      <c r="D60" s="11">
+        <v>21067.5</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D61" s="6">
-        <v>31338</v>
+      <c r="D61" s="11">
+        <v>33218.28</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="6">
-        <v>17422</v>
+      <c r="D62" s="11">
+        <v>18467.32</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="6">
-        <v>33884</v>
+      <c r="D64" s="11">
+        <v>37357.11</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D65" s="6">
-        <v>35662</v>
+      <c r="D65" s="11">
+        <v>39317.360000000001</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="6">
-        <v>12426</v>
+      <c r="D66" s="11">
+        <v>13699.67</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="6">
-        <v>15894</v>
+      <c r="D67" s="11">
+        <v>17523.14</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="6">
-        <v>12426</v>
+      <c r="D68" s="11">
+        <v>13699.67</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D69" s="6">
-        <v>12426</v>
+      <c r="D69" s="11">
+        <v>13699.67</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D70" s="6">
-        <v>13482</v>
+      <c r="D70" s="11">
+        <v>14863.91</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D71" s="6">
-        <v>12426</v>
+      <c r="D71" s="11">
+        <v>13699.67</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D72" s="6">
-        <v>17220</v>
+      <c r="D72" s="11">
+        <v>18985.05</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D73" s="6">
-        <v>19000</v>
+      <c r="D73" s="11">
+        <v>20947.5</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D74" s="6">
-        <v>10686</v>
+      <c r="D74" s="11">
+        <v>11781.32</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D75" s="6">
-        <v>9912</v>
+      <c r="D75" s="11">
+        <v>10927.98</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D76" s="6">
-        <v>14412</v>
+      <c r="D76" s="11">
+        <v>15889.23</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D77" s="6">
-        <v>12426</v>
+      <c r="D77" s="11">
+        <v>13699.67</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D78" s="6">
-        <v>12426</v>
+      <c r="D78" s="11">
+        <v>13699.67</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D79" s="6">
-        <v>15938</v>
+      <c r="D79" s="11">
+        <v>17571.650000000001</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D81" s="5"/>
+      <c r="D81" s="9"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D83" s="6">
-        <v>20934</v>
+      <c r="D83" s="11">
+        <v>22190.04</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D84" s="4">
-        <v>6501</v>
+      <c r="D84" s="11">
+        <v>6891.06</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D85" s="4">
-        <v>7802</v>
+      <c r="D85" s="11">
+        <v>8270.1200000000008</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D86" s="5"/>
+      <c r="D86" s="10" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D87" s="5"/>
+      <c r="D87" s="10" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D88" s="4">
-        <v>12016</v>
+      <c r="D88" s="11">
+        <v>12736.96</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D89" s="4">
-        <v>13490</v>
+      <c r="D89" s="11">
+        <v>14299.4</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D90" s="4">
-        <v>13490</v>
+      <c r="D90" s="11">
+        <v>14299.4</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D91" s="4">
-        <v>12016</v>
+      <c r="D91" s="11">
+        <v>12736.96</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D92" s="4">
-        <v>17892</v>
+      <c r="D92" s="11">
+        <v>18965.52</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="4">
-        <v>14313</v>
+      <c r="D93" s="11">
+        <v>15171.78</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D94" s="4">
-        <v>14313</v>
+      <c r="D94" s="11">
+        <v>15171.78</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D95" s="4">
-        <v>11451</v>
+      <c r="D95" s="11">
+        <v>12138.06</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D96" s="4">
-        <v>12167</v>
+      <c r="D96" s="11">
+        <v>12897.02</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D97" s="4">
-        <v>20934</v>
+      <c r="D97" s="11">
+        <v>22190.04</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D98" s="4">
-        <v>13420</v>
+      <c r="D98" s="11">
+        <v>14225.2</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D99" s="4">
-        <v>16237</v>
+      <c r="D99" s="11">
+        <v>17211.22</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D100" s="4">
-        <v>16237</v>
+      <c r="D100" s="11">
+        <v>17211.22</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D101" s="4">
-        <v>21628</v>
+      <c r="D101" s="11">
+        <v>22925.68</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D102" s="4">
-        <v>20754</v>
+      <c r="D102" s="11">
+        <v>21999.24</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D104" s="4">
-        <v>12016</v>
+      <c r="D104" s="11">
+        <v>12736.96</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="4">
-        <v>9017</v>
+      <c r="D105" s="11">
+        <v>9558.02</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D106" s="4">
-        <v>16618</v>
+      <c r="D106" s="11">
+        <v>17615.080000000002</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D107" s="4">
-        <v>18280</v>
+      <c r="D107" s="11">
+        <v>19376.8</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D108" s="4">
-        <v>20109</v>
+      <c r="D108" s="11">
+        <v>21315.54</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D109" s="4">
-        <v>10323</v>
+      <c r="D109" s="11">
+        <v>10942.38</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D110" s="4">
-        <v>10323</v>
+      <c r="D110" s="11">
+        <v>10942.38</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D111" s="4">
-        <v>24904</v>
+      <c r="D111" s="11">
+        <v>26398.240000000002</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D113" s="4">
-        <v>8100</v>
+      <c r="D113" s="11">
+        <v>8586</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D114" s="4">
-        <v>8100</v>
+      <c r="D114" s="11">
+        <v>8586</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D115" s="4">
-        <v>8100</v>
+      <c r="D115" s="11">
+        <v>8586</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D116" s="5"/>
+      <c r="D116" s="9"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="11">
         <v>8000</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" s="3" t="s">
+      <c r="A119" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="11">
         <v>8000</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="11">
         <v>9000</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D121" s="4">
-        <v>13492</v>
+      <c r="D121" s="11">
+        <v>14571.36</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D122" s="4">
-        <v>11407</v>
+      <c r="D122" s="11">
+        <v>12319.56</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D123" s="4">
-        <v>12338</v>
+      <c r="D123" s="11">
+        <v>13325.04</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D124" s="4">
-        <v>27342</v>
+      <c r="D124" s="11">
+        <v>29529.360000000001</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D125" s="4">
-        <v>46642</v>
+      <c r="D125" s="11">
+        <v>50373.36</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D126" s="4">
-        <v>10827</v>
+      <c r="D126" s="11">
+        <v>11693.16</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D127" s="4">
-        <v>11132</v>
+      <c r="D127" s="11">
+        <v>12022.56</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D128" s="4">
-        <v>10192</v>
+      <c r="D128" s="11">
+        <v>11007.36</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D129" s="4">
-        <v>10192</v>
+      <c r="D129" s="11">
+        <v>11007.36</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D130" s="4">
-        <v>8700</v>
+      <c r="D130" s="11">
+        <v>9396</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D131" s="4">
-        <v>16480</v>
+      <c r="D131" s="11">
+        <v>17798.400000000001</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D132" s="4">
-        <v>20150</v>
+      <c r="D132" s="11">
+        <v>21762</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D133" s="4">
-        <v>10780</v>
+      <c r="D133" s="11">
+        <v>11642.4</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D134" s="4">
-        <v>11132</v>
+      <c r="D134" s="11">
+        <v>12022.56</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D135" s="4">
-        <v>19350</v>
+      <c r="D135" s="11">
+        <v>20898</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D136" s="4">
-        <v>18885</v>
+      <c r="D136" s="11">
+        <v>20395.8</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D137" s="4">
-        <v>10173</v>
+      <c r="D137" s="11">
+        <v>10986.84</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D139" s="5"/>
+      <c r="D139" s="9"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D140" s="5"/>
+      <c r="D140" s="9"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D141" s="5"/>
+      <c r="D141" s="9"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D142" s="5"/>
+      <c r="D142" s="9"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="D143" s="5"/>
+      <c r="D143" s="9"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D144" s="5"/>
+      <c r="D144" s="9"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D145" s="5"/>
+      <c r="D145" s="9"/>
     </row>
     <row r="146" spans="1:4" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A146" s="8"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="10"/>
+      <c r="A146" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-      <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+      <c r="A147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="D148" s="4">
-        <v>14222</v>
+      <c r="D148" s="11">
+        <v>15075.32</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D149" s="4">
-        <v>11026</v>
+      <c r="D149" s="11">
+        <v>11687.56</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D150" s="4">
-        <v>18294</v>
+      <c r="D150" s="11">
+        <v>19391.64</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
+      <c r="A151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D152" s="5"/>
+      <c r="D152" s="9"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D153" s="5"/>
+      <c r="D153" s="9"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D154" s="4">
-        <v>6381.91</v>
+      <c r="D154" s="11">
+        <v>7020.1</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D155" s="4">
-        <v>8078.47</v>
+      <c r="D155" s="11">
+        <v>8886.32</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D156" s="4">
-        <v>9228.68</v>
+      <c r="D156" s="11">
+        <v>10151.549999999999</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="D157" s="4">
-        <v>8685.91</v>
+      <c r="D157" s="11">
+        <v>9554.5</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D158" s="4">
-        <v>10840.79</v>
+      <c r="D158" s="11">
+        <v>11924.87</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D159" s="4">
-        <v>12481.64</v>
+      <c r="D159" s="11">
+        <v>13729.8</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D160" s="4">
-        <v>14126.09</v>
+      <c r="D160" s="11">
+        <v>15538.7</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="D161" s="4">
-        <v>21922.39</v>
+      <c r="D161" s="11">
+        <v>24114.63</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D162" s="4">
-        <v>16472.689999999999</v>
+      <c r="D162" s="11">
+        <v>18119.96</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D163" s="4">
-        <v>20418.12</v>
+      <c r="D163" s="11">
+        <v>22459.93</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D164" s="4">
-        <v>22571.19</v>
+      <c r="D164" s="11">
+        <v>24828.31</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="D165" s="5"/>
+      <c r="D165" s="9"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="D166" s="5"/>
+      <c r="D166" s="9"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="D167" s="5"/>
+      <c r="D167" s="9"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="3" t="s">
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="3" t="s">
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="D172" s="4">
-        <v>2387.2800000000002</v>
+      <c r="D172" s="11">
+        <v>2530.52</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D173" s="4">
-        <v>3426.57</v>
+      <c r="D173" s="11">
+        <v>3632.16</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D174" s="4">
-        <v>4612.8599999999997</v>
+      <c r="D174" s="11">
+        <v>4889.63</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D175" s="4">
-        <v>7279.44</v>
+      <c r="D175" s="11">
+        <v>7716.21</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D176" s="4">
-        <v>9834</v>
+      <c r="D176" s="11">
+        <v>10424.040000000001</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="D177" s="4">
-        <v>14141.4</v>
+      <c r="D177" s="11">
+        <v>14989.88</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D178" s="4">
-        <v>5512.5</v>
+      <c r="D178" s="11">
+        <v>5843.25</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D179" s="4">
-        <v>9034.6200000000008</v>
+      <c r="D179" s="11">
+        <v>9576.7000000000007</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="D180" s="4">
-        <v>9834.2999999999993</v>
+      <c r="D180" s="11">
+        <v>10424.36</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5"/>
+      <c r="A181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="D182" s="4">
-        <v>1880</v>
+      <c r="D182" s="11">
+        <v>1992.8</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D183" s="4">
-        <v>1181</v>
+      <c r="D183" s="11">
+        <v>1251.8599999999999</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D184" s="4">
-        <v>2187</v>
+      <c r="D184" s="11">
+        <v>2318.2199999999998</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D185" s="4">
-        <v>1271</v>
+      <c r="D185" s="11">
+        <v>1347.26</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="D186" s="4">
-        <v>1802</v>
+      <c r="D186" s="11">
+        <v>1910.12</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="D187" s="4">
-        <v>2058</v>
+      <c r="D187" s="11">
+        <v>2181.48</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D188" s="4">
-        <v>3348</v>
+      <c r="D188" s="11">
+        <v>3548.88</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="D189" s="4">
-        <v>5658</v>
+      <c r="D189" s="11">
+        <v>5997.48</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D190" s="4">
-        <v>7327</v>
+      <c r="D190" s="11">
+        <v>7766.62</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D191" s="4">
-        <v>2079</v>
+      <c r="D191" s="11">
+        <v>2203.7399999999998</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="D192" s="4">
-        <v>2640</v>
+      <c r="D192" s="11">
+        <v>2798.4</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="D193" s="4">
-        <v>4620</v>
+      <c r="D193" s="11">
+        <v>4897.2</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D194" s="4">
-        <v>5889</v>
+      <c r="D194" s="11">
+        <v>6242.34</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D195" s="4">
-        <v>2541</v>
+      <c r="D195" s="11">
+        <v>2693.46</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="D196" s="4">
-        <v>3258</v>
+      <c r="D196" s="11">
+        <v>3453.48</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="D197" s="4">
-        <v>3698</v>
+      <c r="D197" s="11">
+        <v>3919.88</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="D198" s="4">
-        <v>5552</v>
+      <c r="D198" s="11">
+        <v>5885.12</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="D199" s="4">
-        <v>10585</v>
+      <c r="D199" s="11">
+        <v>11220.1</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D200" s="4">
-        <v>13216</v>
+      <c r="D200" s="11">
+        <v>14008.96</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="D201" s="4">
-        <v>14116</v>
+      <c r="D201" s="11">
+        <v>14962.96</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="D202" s="4">
-        <v>7832</v>
+      <c r="D202" s="11">
+        <v>8301.92</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="D203" s="4">
-        <v>2657</v>
+      <c r="D203" s="11">
+        <v>2816.42</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="D204" s="4">
-        <v>3922</v>
+      <c r="D204" s="11">
+        <v>4157.32</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="D205" s="4">
-        <v>4967</v>
+      <c r="D205" s="11">
+        <v>5265.02</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="D206" s="4">
-        <v>6351</v>
+      <c r="D206" s="11">
+        <v>6732.06</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D207" s="4">
-        <v>3055</v>
+      <c r="D207" s="11">
+        <v>3238.3</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D208" s="4">
-        <v>4510</v>
+      <c r="D208" s="11">
+        <v>4780.6000000000004</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D209" s="4">
-        <v>5500</v>
+      <c r="D209" s="11">
+        <v>5830</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D210" s="4">
-        <v>7304</v>
+      <c r="D210" s="11">
+        <v>7742.24</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A211" s="5"/>
-      <c r="B211" s="5"/>
-      <c r="C211" s="5"/>
-      <c r="D211" s="5"/>
+      <c r="A211" s="9"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D212" s="4">
-        <v>8516</v>
+      <c r="D212" s="11">
+        <v>9197.2800000000007</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D213" s="4">
-        <v>10481</v>
+      <c r="D213" s="11">
+        <v>11319.48</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A214" s="5"/>
-      <c r="B214" s="5"/>
-      <c r="C214" s="5"/>
-      <c r="D214" s="5"/>
+      <c r="A214" s="9"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="9"/>
+      <c r="D214" s="9"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A215" s="5"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
-    </row>
-    <row r="216" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A216" s="8"/>
-      <c r="B216" s="9"/>
-      <c r="C216" s="9"/>
-      <c r="D216" s="10"/>
+      <c r="A215" s="9"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="9"/>
+      <c r="D215" s="9"/>
+    </row>
+    <row r="216" spans="1:4" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A216" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="4"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A217" s="5"/>
-      <c r="B217" s="5"/>
-      <c r="C217" s="5"/>
-      <c r="D217" s="5"/>
+      <c r="A217" s="9"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="9"/>
+      <c r="D217" s="9"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="D218" s="5"/>
+      <c r="D218" s="9"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="D219" s="5"/>
+      <c r="D219" s="9"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="D220" s="5"/>
+      <c r="D220" s="9"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A221" s="5"/>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
+      <c r="A221" s="9"/>
+      <c r="B221" s="9"/>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="D222" s="4">
-        <v>13488.72</v>
+      <c r="D222" s="11">
+        <v>14298.04</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D223" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="D224" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="D225" s="4">
-        <v>20935.740000000002</v>
+      <c r="D225" s="11">
+        <v>22191.88</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="D226" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A227" s="5"/>
-      <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
+      <c r="A227" s="9"/>
+      <c r="B227" s="9"/>
+      <c r="C227" s="9"/>
+      <c r="D227" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="D228" s="4">
-        <v>9681.42</v>
+      <c r="D228" s="11">
+        <v>10262.31</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="D229" s="4">
-        <v>11499.81</v>
+      <c r="D229" s="11">
+        <v>12189.8</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="D230" s="4">
-        <v>8620.08</v>
+      <c r="D230" s="11">
+        <v>9137.2800000000007</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A231" s="5"/>
-      <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
+      <c r="A231" s="9"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="9"/>
+      <c r="D231" s="9"/>
     </row>
     <row r="232" spans="1:4" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A232" s="8"/>
-      <c r="B232" s="9"/>
-      <c r="C232" s="9"/>
-      <c r="D232" s="10"/>
+      <c r="A232" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="4"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A233" s="5"/>
-      <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
-      <c r="D233" s="5"/>
+      <c r="A233" s="9"/>
+      <c r="B233" s="9"/>
+      <c r="C233" s="9"/>
+      <c r="D233" s="9"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="D234" s="4">
-        <v>2800</v>
+      <c r="D234" s="11">
+        <v>3192</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="D235" s="3" t="s">
+      <c r="D235" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D236" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D237" s="7">
-        <v>394.45</v>
+      <c r="D237" s="13">
+        <v>449.67</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="D238" s="7">
-        <v>394.45</v>
+      <c r="D238" s="13">
+        <v>449.67</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="D239" s="3" t="s">
+      <c r="D239" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="D240" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="D241" s="4">
-        <v>9270</v>
+      <c r="D241" s="11">
+        <v>10567.8</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="D242" s="4">
-        <v>9920</v>
+      <c r="D242" s="11">
+        <v>11308.8</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="D243" s="4">
-        <v>6200</v>
+      <c r="D243" s="11">
+        <v>7068</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="D244" s="4">
-        <v>6630</v>
+      <c r="D244" s="11">
+        <v>7558.2</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="D245" s="4">
-        <v>8676</v>
+      <c r="D245" s="11">
+        <v>9890.64</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="D246" s="4">
-        <v>9284</v>
+      <c r="D246" s="11">
+        <v>10583.76</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="D247" s="4">
-        <v>4987</v>
+      <c r="D247" s="11">
+        <v>5685.18</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="D248" s="4">
-        <v>5340</v>
+      <c r="D248" s="11">
+        <v>6087.6</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="B249" s="3" t="s">
+      <c r="B249" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="D249" s="4">
-        <v>4987</v>
+      <c r="D249" s="11">
+        <v>5685.18</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A250" s="3" t="s">
+      <c r="A250" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="D250" s="4">
-        <v>5340</v>
+      <c r="D250" s="11">
+        <v>6087.6</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="D251" s="4">
-        <v>7438</v>
+      <c r="D251" s="11">
+        <v>8479.32</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="D252" s="4">
-        <v>7960</v>
+      <c r="D252" s="11">
+        <v>9074.4</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="D253" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="D254" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="D255" s="4">
-        <v>2470</v>
+      <c r="D255" s="11">
+        <v>2618.1999999999998</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="28.5" x14ac:dyDescent="0.4">
-      <c r="A256" s="8"/>
-      <c r="B256" s="9"/>
-      <c r="C256" s="9"/>
-      <c r="D256" s="10"/>
+      <c r="A256" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="4"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A257" s="5"/>
-      <c r="B257" s="5"/>
-      <c r="C257" s="5"/>
-      <c r="D257" s="5"/>
+      <c r="A257" s="9"/>
+      <c r="B257" s="9"/>
+      <c r="C257" s="9"/>
+      <c r="D257" s="9"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="D258" s="4">
-        <v>13416</v>
+      <c r="D258" s="11">
+        <v>14489.28</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A259" s="3" t="s">
+      <c r="A259" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="D259" s="4">
-        <v>13662</v>
+      <c r="D259" s="11">
+        <v>14754.96</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A260" s="3" t="s">
+      <c r="A260" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="D260" s="4">
-        <v>14856</v>
+      <c r="D260" s="11">
+        <v>16044.48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A232:D232"/>
     <mergeCell ref="A256:D256"/>
     <mergeCell ref="A146:D146"/>
     <mergeCell ref="A216:D216"/>
+    <mergeCell ref="A232:D232"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
